--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,12 +8,16 @@
   <sheets>
     <sheet name="data_table" r:id="rId3" sheetId="1"/>
     <sheet name="trend_table_dph" r:id="rId4" sheetId="2"/>
+    <sheet name="trend_table_dps" r:id="rId5" sheetId="3"/>
+    <sheet name="trend_table_n_clicks" r:id="rId6" sheetId="4"/>
+    <sheet name="trend_table_n_encounters" r:id="rId7" sheetId="5"/>
+    <sheet name="trend_table_n_trains" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>station</t>
   </si>
@@ -190,6 +194,117 @@
   </si>
   <si>
     <t>0.82 (0.22)</t>
+  </si>
+  <si>
+    <t>24 (10, 39)</t>
+  </si>
+  <si>
+    <t>-0.9 (-14, 14)</t>
+  </si>
+  <si>
+    <t>12.2 (-7.2, 36)</t>
+  </si>
+  <si>
+    <t>0.6 (-11, 14)</t>
+  </si>
+  <si>
+    <t>0.49 (0.14)</t>
+  </si>
+  <si>
+    <t>0.37 (0.12)</t>
+  </si>
+  <si>
+    <t>0.25 (0.1)</t>
+  </si>
+  <si>
+    <t>0.45 (0.13)</t>
+  </si>
+  <si>
+    <t>0.46 (0.13)</t>
+  </si>
+  <si>
+    <t>0.24 (0.09)</t>
+  </si>
+  <si>
+    <t>0.42 (0.13)</t>
+  </si>
+  <si>
+    <t>26.6 (8.4, 48)</t>
+  </si>
+  <si>
+    <t>-0.4 (-17, 19)</t>
+  </si>
+  <si>
+    <t>10.1 (-14, 40)</t>
+  </si>
+  <si>
+    <t>0.9 (-14, 19)</t>
+  </si>
+  <si>
+    <t>0.33 (0.11)</t>
+  </si>
+  <si>
+    <t>0.28 (0.1)</t>
+  </si>
+  <si>
+    <t>0.19 (0.08)</t>
+  </si>
+  <si>
+    <t>0.3 (0.1)</t>
+  </si>
+  <si>
+    <t>0.26 (0.1)</t>
+  </si>
+  <si>
+    <t>0.18 (0.08)</t>
+  </si>
+  <si>
+    <t>16.4 (1.4, 34)</t>
+  </si>
+  <si>
+    <t>0.6 (-7.3, 9.3)</t>
+  </si>
+  <si>
+    <t>12.8 (-4.7, 34)</t>
+  </si>
+  <si>
+    <t>2.4 (-4.3, 9.6)</t>
+  </si>
+  <si>
+    <t>0.38 (0.12)</t>
+  </si>
+  <si>
+    <t>0.83 (0.23)</t>
+  </si>
+  <si>
+    <t>21.9 (0.97, 47)</t>
+  </si>
+  <si>
+    <t>1.7 (-9.1, 14)</t>
+  </si>
+  <si>
+    <t>12.7 (-8, 38)</t>
+  </si>
+  <si>
+    <t>3.1 (-7.2, 14)</t>
+  </si>
+  <si>
+    <t>0.5 (0.14)</t>
+  </si>
+  <si>
+    <t>0.23 (0.09)</t>
+  </si>
+  <si>
+    <t>0.55 (0.15)</t>
+  </si>
+  <si>
+    <t>0.47 (0.13)</t>
+  </si>
+  <si>
+    <t>0.22 (0.09)</t>
+  </si>
+  <si>
+    <t>0.52 (0.14)</t>
   </si>
 </sst>
 </file>
@@ -1067,4 +1182,508 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -12,12 +12,13 @@
     <sheet name="trend_table_n_clicks" r:id="rId6" sheetId="4"/>
     <sheet name="trend_table_n_encounters" r:id="rId7" sheetId="5"/>
     <sheet name="trend_table_n_trains" r:id="rId8" sheetId="6"/>
+    <sheet name="trend_summary" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
   <si>
     <t>station</t>
   </si>
@@ -305,6 +306,21 @@
   </si>
   <si>
     <t>0.52 (0.14)</t>
+  </si>
+  <si>
+    <t>dph</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>n_clicks</t>
+  </si>
+  <si>
+    <t>n_encounters</t>
+  </si>
+  <si>
+    <t>n_trains</t>
   </si>
 </sst>
 </file>
@@ -1686,4 +1702,130 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>